--- a/biology/Médecine/Akinétopsie/Akinétopsie.xlsx
+++ b/biology/Médecine/Akinétopsie/Akinétopsie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akin%C3%A9topsie</t>
+          <t>Akinétopsie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'akinétopsie, ou agnosie visuelle du mouvement, est une incapacité de percevoir le mouvement[1]. La personne atteinte d'akinétopsie voit avec des arrêts sur image qui peuvent durer plusieurs secondes. Cela présente de grandes difficultés dans la vie quotidienne, par exemple pour traverser la rue ou pour la pratique d'un sport.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'akinétopsie, ou agnosie visuelle du mouvement, est une incapacité de percevoir le mouvement. La personne atteinte d'akinétopsie voit avec des arrêts sur image qui peuvent durer plusieurs secondes. Cela présente de grandes difficultés dans la vie quotidienne, par exemple pour traverser la rue ou pour la pratique d'un sport.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akin%C3%A9topsie</t>
+          <t>Akinétopsie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Cas cliniques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Zihl et ses collaborateurs ont publié en 1983, à Munich, un article consacré à une femme de 43 ans qui était dans l'incapacité de percevoir les mouvements à la suite d’un AVC qui avait lésé les deux côtés de son cortex extrastrié impliqué dans la reconnaissance du mouvement (aire V5). 
 Le fait que les aires V5 se trouvent symétriquement sur les faces latérales des lobes temporaux rend en effet improbable une atteinte accidentelle simultanée des deux régions. 
